--- a/AutomationTest_Artifact1_Instagram/TestData/InstaTestData.xlsx
+++ b/AutomationTest_Artifact1_Instagram/TestData/InstaTestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2580" windowWidth="15210" windowHeight="3465"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,27 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>logindetails</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>hdbhgd</t>
-  </si>
-  <si>
-    <t>test1234</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>RunMode</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>test@ibt.com</t>
+  </si>
+  <si>
+    <t>runMode</t>
   </si>
 </sst>
 </file>
@@ -72,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,43 +366,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A6:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
